--- a/数据整理/stocks/A股/深证主板/000938-紫光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000938-紫光股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161628</t>
+          <t>159998</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融通中证云计算与大数据主题指数（LOF）</t>
+          <t>天弘中证计算机主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>22.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4964</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159998</t>
+          <t>501095</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘中证计算机主题ETF</t>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>99.72</t>
+          <t>10.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4573</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>168701</t>
+          <t>512720</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+          <t>国泰中证计算机主题ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>13.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2964</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>168702</t>
+          <t>161224</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>512720</t>
+          <t>168701</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰中证计算机主题ETF</t>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>99.35</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004917</t>
+          <t>161628</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中银证券祥瑞混合A</t>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>78.61</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004918</t>
+          <t>004917</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中银证券祥瑞混合C</t>
+          <t>中银证券祥瑞混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>78.61</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>5.53</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>161224</t>
+          <t>004918</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+          <t>中银证券祥瑞混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501095</t>
+          <t>168702</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>79.05</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512720</t>
+          <t>159819</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰中证计算机主题ETF</t>
+          <t>易方达中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>99.25</t>
+          <t>35.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9008</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -818,26 +938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>512930</t>
+          <t>159998</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>平安中证人工智能主题ETF</t>
+          <t>天弘中证计算机主题ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>98.00</t>
+          <t>19.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4489</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -856,15 +986,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>99.09</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.51</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3050</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515400</t>
+          <t>512720</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国中证大数据产业ETF</t>
+          <t>国泰中证计算机主题ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>98.90</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2269</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159819</t>
+          <t>159852</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达中证人工智能主题ETF</t>
+          <t>嘉实中证软件服务ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>98.86</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>159852</t>
+          <t>515400</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实中证软件服务ETF</t>
+          <t>富国中证大数据产业ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>97.55</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>159998</t>
+          <t>512930</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天弘中证计算机主题ETF</t>
+          <t>平安中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>99.73</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>161628</t>
+          <t>168701</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>融通中证云计算与大数据主题指数（LOF）</t>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.94</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>168701</t>
+          <t>161628</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1052,15 +1252,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>93.58</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2.99</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000938-紫光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000938-紫光股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,1200 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7676</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4381</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4123</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2733</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003062</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>31.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003063</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>31.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000938-紫光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000938-紫光股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2474,4 +2475,1466 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2755</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8232</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6404</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4480</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3179</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2715</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2712</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2656</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2653</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2276</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2049</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000938-紫光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000938-紫光股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3937,4 +3938,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000938-紫光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000938-紫光股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3946,7 +3947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3957,17 +3958,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3977,14 +3998,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.7</v>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7605</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3993,14 +4036,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.27</v>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7788</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4009,14 +4074,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.38</v>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2952</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4025,13 +4112,835 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>33.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000938-紫光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000938-紫光股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4839,7 +4840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4850,17 +4851,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4870,14 +4891,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.22</v>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2435</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4886,14 +4929,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.7</v>
+          <t>014677</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2435</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4902,14 +4967,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.27</v>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7113</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4918,14 +5005,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.38</v>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4109</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4934,13 +5043,1307 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3564</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2623</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2219</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000938-紫光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000938-紫光股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6226,7 +6227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6237,17 +6238,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6257,14 +6278,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.19</v>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0770</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -6273,14 +6316,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.22</v>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0831</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -6289,14 +6354,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.7</v>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0329</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -6305,14 +6392,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.27</v>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9341</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -6321,14 +6430,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3784</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.38</v>
       </c>
     </row>
     <row r="7">
@@ -6337,13 +6468,1437 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3696</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2097</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013083</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000938-紫光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000938-紫光股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>7.72</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>6.19</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>4.22</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>7.7</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>3.27</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>2.38</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.36</v>
       </c>
     </row>
@@ -600,6 +617,1580 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0210</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8612</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8358</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5301</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2792</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华中证云计算50ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159738</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159739</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>517390</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012432</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012019</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015201</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013083</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015200</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012020</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012431</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2137,7 +3728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3523,7 +5114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4415,7 +6006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5877,7 +7468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7073,7 +8664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7509,7 +9100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000938-紫光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000938-紫光股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D2" t="n">
-        <v>4.64</v>
+        <v>11.32</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>7.72</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4" t="n">
-        <v>6.19</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>4.22</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>7.7</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>3.27</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>2.38</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.36</v>
       </c>
     </row>
@@ -616,7 +633,2551 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4964</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4573</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2964</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8388</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3031</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1760</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6918</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6208</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5419</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4018</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3629</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3625</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2991</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2927</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2513</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002064</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华富产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2088</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013693</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博道盛兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1495</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博道盛彦混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新华中证云计算50ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159739</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159738</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>517390</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012432</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>35.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013083</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012019</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>31.81</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博道盛彦混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012020</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>31.81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012431</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>35.74</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2190,7 +4751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3728,7 +6289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5114,7 +7675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6006,7 +8567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7468,7 +10029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8664,7 +11225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9098,402 +11659,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159998</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘中证计算机主题ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.72</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4964</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501095</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4573</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512720</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰中证计算机主题ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.35</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2964</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161224</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.55</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0436</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>168701</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0357</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161628</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>融通中证云计算与大数据主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0152</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004917</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中银证券祥瑞混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>78.61</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004918</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中银证券祥瑞混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>78.61</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>168702</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>